--- a/labelled_csv_files/labelled_M_0234_09y9m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0234_09y9m_1_fa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DF49453-FC47-5D4F-93E6-AA993EAC7D39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7066F404-8220-044D-94AD-673E0AC051C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000"/>
+    <workbookView xWindow="60" yWindow="1040" windowWidth="14400" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0234_09y9m_1_fa" sheetId="1" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1851,10 +1851,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="178" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3183,10 +3185,10 @@
         <v>111</v>
       </c>
       <c r="C67">
-        <v>32.869999999999997</v>
+        <v>33.67</v>
       </c>
       <c r="D67">
-        <v>32.975000000000001</v>
+        <v>34.174999999999997</v>
       </c>
       <c r="E67" t="s">
         <v>112</v>
@@ -3203,10 +3205,10 @@
         <v>113</v>
       </c>
       <c r="C68">
-        <v>32.975000000000001</v>
+        <v>34.174999999999997</v>
       </c>
       <c r="D68">
-        <v>33.03</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E68" t="s">
         <v>60</v>
@@ -3223,10 +3225,10 @@
         <v>114</v>
       </c>
       <c r="C69">
-        <v>33.03</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D69">
-        <v>33.200000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E69" t="s">
         <v>115</v>
@@ -3243,10 +3245,10 @@
         <v>116</v>
       </c>
       <c r="C70">
-        <v>33.200000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D70">
-        <v>33.22</v>
+        <v>35.4</v>
       </c>
       <c r="E70" t="s">
         <v>60</v>
@@ -3286,7 +3288,7 @@
         <v>33.22</v>
       </c>
       <c r="D72">
-        <v>33.225000000000001</v>
+        <v>34.225000000000001</v>
       </c>
       <c r="E72" t="s">
         <v>120</v>
@@ -3303,10 +3305,10 @@
         <v>121</v>
       </c>
       <c r="C73">
-        <v>33.225000000000001</v>
+        <v>37.125</v>
       </c>
       <c r="D73">
-        <v>33.225000000000001</v>
+        <v>37.524999999999999</v>
       </c>
       <c r="E73" t="s">
         <v>122</v>
@@ -3323,10 +3325,10 @@
         <v>123</v>
       </c>
       <c r="C74">
-        <v>33.225000000000001</v>
+        <v>37.524999999999999</v>
       </c>
       <c r="D74">
-        <v>33.225000000000001</v>
+        <v>37.924999999999997</v>
       </c>
       <c r="E74" t="s">
         <v>124</v>
@@ -3343,10 +3345,10 @@
         <v>125</v>
       </c>
       <c r="C75">
-        <v>33.225000000000001</v>
+        <v>37.924999999999997</v>
       </c>
       <c r="D75">
-        <v>33.26</v>
+        <v>38.26</v>
       </c>
       <c r="E75" t="s">
         <v>60</v>
@@ -3503,10 +3505,10 @@
         <v>135</v>
       </c>
       <c r="C83">
-        <v>35.844999999999999</v>
+        <v>41.1</v>
       </c>
       <c r="D83">
-        <v>35.945</v>
+        <v>42.2</v>
       </c>
       <c r="E83" t="s">
         <v>136</v>
@@ -3526,10 +3528,10 @@
         <v>138</v>
       </c>
       <c r="C84">
-        <v>35.945</v>
+        <v>42.2</v>
       </c>
       <c r="D84">
-        <v>35.945</v>
+        <v>42.4</v>
       </c>
       <c r="E84" t="s">
         <v>139</v>
@@ -3546,10 +3548,10 @@
         <v>140</v>
       </c>
       <c r="C85">
-        <v>35.945</v>
+        <v>42.4</v>
       </c>
       <c r="D85">
-        <v>36.344999999999999</v>
+        <v>43.244999999999997</v>
       </c>
       <c r="E85" t="s">
         <v>141</v>
@@ -3566,10 +3568,10 @@
         <v>142</v>
       </c>
       <c r="C86">
-        <v>36.344999999999999</v>
+        <v>43.244999999999997</v>
       </c>
       <c r="D86">
-        <v>36.655000000000001</v>
+        <v>43.75</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -3586,10 +3588,10 @@
         <v>143</v>
       </c>
       <c r="C87">
-        <v>36.655000000000001</v>
+        <v>43.75</v>
       </c>
       <c r="D87">
-        <v>37.274999999999999</v>
+        <v>44.2</v>
       </c>
       <c r="E87" t="s">
         <v>144</v>
@@ -3606,10 +3608,10 @@
         <v>145</v>
       </c>
       <c r="C88">
-        <v>37.274999999999999</v>
+        <v>44.2</v>
       </c>
       <c r="D88">
-        <v>37.325000000000003</v>
+        <v>44.6</v>
       </c>
       <c r="E88" t="s">
         <v>146</v>
@@ -3626,10 +3628,10 @@
         <v>147</v>
       </c>
       <c r="C89">
-        <v>37.325000000000003</v>
+        <v>44.6</v>
       </c>
       <c r="D89">
-        <v>37.369999999999997</v>
+        <v>45.2</v>
       </c>
       <c r="E89" t="s">
         <v>39</v>
@@ -3646,10 +3648,10 @@
         <v>148</v>
       </c>
       <c r="C90">
-        <v>37.369999999999997</v>
+        <v>45.2</v>
       </c>
       <c r="D90">
-        <v>37.58</v>
+        <v>45.8</v>
       </c>
       <c r="E90" t="s">
         <v>149</v>
@@ -3666,10 +3668,10 @@
         <v>150</v>
       </c>
       <c r="C91">
-        <v>37.58</v>
+        <v>45.8</v>
       </c>
       <c r="D91">
-        <v>37.825000000000003</v>
+        <v>46.225000000000001</v>
       </c>
       <c r="E91" t="s">
         <v>47</v>
@@ -3686,10 +3688,10 @@
         <v>151</v>
       </c>
       <c r="C92">
-        <v>37.825000000000003</v>
+        <v>46.225000000000001</v>
       </c>
       <c r="D92">
-        <v>37.869999999999997</v>
+        <v>46.37</v>
       </c>
       <c r="E92" t="s">
         <v>124</v>
@@ -3706,10 +3708,10 @@
         <v>152</v>
       </c>
       <c r="C93">
-        <v>37.869999999999997</v>
+        <v>46.37</v>
       </c>
       <c r="D93">
-        <v>37.880000000000003</v>
+        <v>46.88</v>
       </c>
       <c r="E93" t="s">
         <v>39</v>
@@ -3726,10 +3728,10 @@
         <v>153</v>
       </c>
       <c r="C94">
-        <v>37.880000000000003</v>
+        <v>46.88</v>
       </c>
       <c r="D94">
-        <v>38.840000000000003</v>
+        <v>47.84</v>
       </c>
       <c r="E94" t="s">
         <v>154</v>
@@ -4806,7 +4808,7 @@
         <v>233</v>
       </c>
       <c r="C148">
-        <v>76.105000000000004</v>
+        <v>79.105000000000004</v>
       </c>
       <c r="D148">
         <v>81.584999999999994</v>
@@ -5509,7 +5511,7 @@
         <v>103.295</v>
       </c>
       <c r="D183">
-        <v>106.33</v>
+        <v>105.33</v>
       </c>
       <c r="E183" t="s">
         <v>289</v>
